--- a/timetable.xlsx
+++ b/timetable.xlsx
@@ -8,15 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raphael Dohnalek\Documents\source\repos\GAME_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E44F0AEB-E67A-4037-A417-D5E048A603B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C4102F-2286-4A24-A5F6-2049F0EAC8CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
@@ -25,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="58">
   <si>
     <t>Area</t>
   </si>
@@ -172,6 +182,33 @@
   </si>
   <si>
     <t>After a specific time was reached, the player with the most covered area wins</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Manual Map Generation</t>
+  </si>
+  <si>
+    <t>WIP</t>
+  </si>
+  <si>
+    <t>Changed to knockback</t>
+  </si>
+  <si>
+    <t>Not done if moved to shader</t>
+  </si>
+  <si>
+    <t>Total SP</t>
+  </si>
+  <si>
+    <t>1 SP = 1 Hour</t>
   </si>
 </sst>
 </file>
@@ -221,7 +258,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -239,6 +276,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -553,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -565,9 +610,11 @@
     <col min="2" max="2" width="35.85546875" customWidth="1"/>
     <col min="3" max="3" width="19.42578125" customWidth="1"/>
     <col min="4" max="4" width="56.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -580,8 +627,14 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -594,8 +647,14 @@
       <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -608,8 +667,14 @@
       <c r="D3" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -622,8 +687,14 @@
       <c r="D4" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
@@ -636,8 +707,17 @@
       <c r="D5" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E5" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
@@ -650,8 +730,14 @@
       <c r="D6" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E6" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
@@ -664,8 +750,17 @@
       <c r="D7" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>19</v>
       </c>
@@ -678,8 +773,14 @@
       <c r="D8" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="E8" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -692,8 +793,14 @@
       <c r="D9" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="E9" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -706,8 +813,14 @@
       <c r="D10" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="E10" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -720,8 +833,14 @@
       <c r="D11" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="E11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -734,8 +853,17 @@
       <c r="D12" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -748,8 +876,14 @@
       <c r="D13" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="E13" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>36</v>
       </c>
@@ -762,8 +896,14 @@
       <c r="D14" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="E14" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -776,8 +916,14 @@
       <c r="D15" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>36</v>
       </c>
@@ -790,8 +936,14 @@
       <c r="D16" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="E16" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -804,8 +956,14 @@
       <c r="D17" s="5" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="E17" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>4</v>
       </c>
@@ -817,6 +975,30 @@
       </c>
       <c r="D18" s="1" t="s">
         <v>48</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G19">
+        <f>SUM(G2:G17)</f>
+        <v>66</v>
+      </c>
+      <c r="H19" t="s">
+        <v>56</v>
+      </c>
+      <c r="I19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G20">
+        <f>6+8+5+3+5+2+3+1</f>
+        <v>33</v>
+      </c>
+      <c r="H20" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/timetable.xlsx
+++ b/timetable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raphael Dohnalek\Documents\source\repos\GAME_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MichaelDusk\Documents\GitHub\GAME_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C4102F-2286-4A24-A5F6-2049F0EAC8CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{488C6B61-7985-4044-B013-B3094D10E1F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="56">
   <si>
     <t>Area</t>
   </si>
@@ -190,13 +190,7 @@
     <t>Done</t>
   </si>
   <si>
-    <t>Pending</t>
-  </si>
-  <si>
     <t>Manual Map Generation</t>
-  </si>
-  <si>
-    <t>WIP</t>
   </si>
   <si>
     <t>Changed to knockback</t>
@@ -601,7 +595,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -687,8 +681,8 @@
       <c r="D4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s">
-        <v>53</v>
+      <c r="E4" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="G4" s="9">
         <v>13</v>
@@ -711,7 +705,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G5" s="9">
         <v>8</v>
@@ -751,10 +745,10 @@
         <v>18</v>
       </c>
       <c r="E7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>52</v>
       </c>
       <c r="G7" s="9">
         <v>2</v>
@@ -814,7 +808,7 @@
         <v>28</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G10" s="9">
         <v>2</v>
@@ -854,10 +848,10 @@
         <v>33</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G12" s="9">
         <v>1</v>
@@ -877,7 +871,7 @@
         <v>35</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G13" s="9">
         <v>5</v>
@@ -897,7 +891,7 @@
         <v>38</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G14" s="9">
         <v>5</v>
@@ -957,7 +951,7 @@
         <v>46</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G17" s="9">
         <v>5</v>
@@ -977,25 +971,27 @@
         <v>48</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
+      </c>
+      <c r="G18" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G19">
-        <f>SUM(G2:G17)</f>
-        <v>66</v>
+        <f>SUM(G2:G18)</f>
+        <v>67</v>
       </c>
       <c r="H19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G20">
-        <f>6+8+5+3+5+2+3+1</f>
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="H20" t="s">
         <v>50</v>
